--- a/features.xlsx
+++ b/features.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Uni\mememuc-template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C6AB92-9289-40B3-85F4-5005271F6C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Tabelle1!$A$1:$D$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$D$23</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,255 +30,251 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
-    <t xml:space="preserve">Feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intermediate Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Editor - Upload templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 upload option + locally stored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 upload options + locally stored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 upload options + locally stored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Editor - Text input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 boxes with text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basic + position and WYSIWYG editor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3+ freely movable boxes with WYSIWYG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Editor - Canvas and images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">append other images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freely adjust canvas + add images everywhere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Editor - Generation and Download</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generate and show</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generate local or server and show or download</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generate with file-size and download and share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Editor - Navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">next/previous button, keeping text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full navigation through templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. API - Meme Creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create single image with simple text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single image with formatable text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create a set of images with same template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. API - Meme Retrieval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get a specific or random image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get a set of images using sort/filters or random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic or Intermediate + meta-data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. View - Overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endlesscroll with title + image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basic + additional info, e.g., view/votes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intermediate + interaction (comments, vote or share buttons)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. View - Single view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">present slideshow with info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basic + random button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intermediate + autoplay button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10. View - Sort and Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sort after creation date or others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basic + filter after views / votes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intermediate + filter after format, template, title, text, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11. View - Sort Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integrate feature 10. into feature 8. and 9.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12. Profile - Authentification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sign in with email / password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sign in with facebook / google or other third party</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13. Profile - Privacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mark memes as private/unlisted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14. Profile - History</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show history of created memes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">save / continue draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15. Profile - Social</t>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Basic Level</t>
+  </si>
+  <si>
+    <t>Intermediate Level</t>
+  </si>
+  <si>
+    <t>Advanced Level</t>
+  </si>
+  <si>
+    <t>1. Editor - Upload templates</t>
+  </si>
+  <si>
+    <t>1 upload option + locally stored</t>
+  </si>
+  <si>
+    <t>3 upload options + locally stored</t>
+  </si>
+  <si>
+    <t>5 upload options + locally stored</t>
+  </si>
+  <si>
+    <t>2. Editor - Text input</t>
+  </si>
+  <si>
+    <t>2 boxes with text</t>
+  </si>
+  <si>
+    <t>basic + position and WYSIWYG editor</t>
+  </si>
+  <si>
+    <t>3+ freely movable boxes with WYSIWYG</t>
+  </si>
+  <si>
+    <t>3. Editor - Canvas and images</t>
+  </si>
+  <si>
+    <t>append other images</t>
+  </si>
+  <si>
+    <t>freely adjust canvas + add images everywhere</t>
+  </si>
+  <si>
+    <t>4. Editor - Generation and Download</t>
+  </si>
+  <si>
+    <t>generate and show</t>
+  </si>
+  <si>
+    <t>generate local or server and show or download</t>
+  </si>
+  <si>
+    <t>generate with file-size and download and share</t>
+  </si>
+  <si>
+    <t>5. Editor - Navigation</t>
+  </si>
+  <si>
+    <t>next/previous button, keeping text</t>
+  </si>
+  <si>
+    <t>full navigation through templates</t>
+  </si>
+  <si>
+    <t>6. API - Meme Creation</t>
+  </si>
+  <si>
+    <t>create single image with simple text</t>
+  </si>
+  <si>
+    <t>single image with formatable text</t>
+  </si>
+  <si>
+    <t>create a set of images with same template</t>
+  </si>
+  <si>
+    <t>7. API - Meme Retrieval</t>
+  </si>
+  <si>
+    <t>get a specific or random image</t>
+  </si>
+  <si>
+    <t>get a set of images using sort/filters or random</t>
+  </si>
+  <si>
+    <t>Basic or Intermediate + meta-data</t>
+  </si>
+  <si>
+    <t>8. View - Overview</t>
+  </si>
+  <si>
+    <t>endlesscroll with title + image</t>
+  </si>
+  <si>
+    <t>basic + additional info, e.g., view/votes</t>
+  </si>
+  <si>
+    <t>intermediate + interaction (comments, vote or share buttons)</t>
+  </si>
+  <si>
+    <t>9. View - Single view</t>
+  </si>
+  <si>
+    <t>present slideshow with info</t>
+  </si>
+  <si>
+    <t>basic + random button</t>
+  </si>
+  <si>
+    <t>intermediate + autoplay button</t>
+  </si>
+  <si>
+    <t>10. View - Sort and Filter</t>
+  </si>
+  <si>
+    <t>sort after creation date or others</t>
+  </si>
+  <si>
+    <t>basic + filter after views / votes</t>
+  </si>
+  <si>
+    <t>intermediate + filter after format, template, title, text, etc.</t>
+  </si>
+  <si>
+    <t>11. View - Sort Integration</t>
+  </si>
+  <si>
+    <t>integrate feature 10. into feature 8. and 9.</t>
+  </si>
+  <si>
+    <t>12. Profile - Authentification</t>
+  </si>
+  <si>
+    <t>sign in with email / password</t>
+  </si>
+  <si>
+    <t>sign in with facebook / google or other third party</t>
+  </si>
+  <si>
+    <t>13. Profile - Privacy</t>
+  </si>
+  <si>
+    <t>mark memes as private/unlisted</t>
+  </si>
+  <si>
+    <t>14. Profile - History</t>
+  </si>
+  <si>
+    <t>show history of created memes</t>
+  </si>
+  <si>
+    <t>save / continue draft</t>
+  </si>
+  <si>
+    <t>15. Profile - Social</t>
   </si>
   <si>
     <t xml:space="preserve">account bound votes </t>
   </si>
   <si>
-    <t xml:space="preserve">account bound comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16. Template Formats - Gifs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">convert to an image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gif with static caption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gif with changing caption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17. Template Formats - Videos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video with static caption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video with changing caption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18. Videostream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actual videostream of slideshow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intermediate + encrypted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19. Accessibility  - text to speech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reading the title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basic + reading template and captions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intermediate + reading description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20. Accessibility  - speech to text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dictate text (title, caption)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voice control, select template, text to input, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21. PWA - Offline Capabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The meme generator can be opened when the device is offline, prompting a custom error message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One can view created memes, even though the client device is offline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memes can be created offline, are persisted in a local storage, and will be synced with the server as soon as the frontend has a backend connection again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22. Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">any dynamically generated graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basic + detailed graph(s) in Single view OR Templates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basic + detailed graph(s) in Singleview AND Templates</t>
+    <t>account bound comments</t>
+  </si>
+  <si>
+    <t>16. Template Formats - Gifs</t>
+  </si>
+  <si>
+    <t>convert to an image</t>
+  </si>
+  <si>
+    <t>gif with static caption</t>
+  </si>
+  <si>
+    <t>gif with changing caption</t>
+  </si>
+  <si>
+    <t>17. Template Formats - Videos</t>
+  </si>
+  <si>
+    <t>video with static caption</t>
+  </si>
+  <si>
+    <t>video with changing caption</t>
+  </si>
+  <si>
+    <t>18. Videostream</t>
+  </si>
+  <si>
+    <t>actual videostream of slideshow</t>
+  </si>
+  <si>
+    <t>intermediate + encrypted</t>
+  </si>
+  <si>
+    <t>19. Accessibility  - text to speech</t>
+  </si>
+  <si>
+    <t>reading the title</t>
+  </si>
+  <si>
+    <t>basic + reading template and captions</t>
+  </si>
+  <si>
+    <t>intermediate + reading description</t>
+  </si>
+  <si>
+    <t>20. Accessibility  - speech to text</t>
+  </si>
+  <si>
+    <t>dictate text (title, caption)</t>
+  </si>
+  <si>
+    <t>voice control, select template, text to input, etc.</t>
+  </si>
+  <si>
+    <t>21. PWA - Offline Capabilities</t>
+  </si>
+  <si>
+    <t>The meme generator can be opened when the device is offline, prompting a custom error message</t>
+  </si>
+  <si>
+    <t>One can view created memes, even though the client device is offline</t>
+  </si>
+  <si>
+    <t>Memes can be created offline, are persisted in a local storage, and will be synced with the server as soon as the frontend has a backend connection again</t>
+  </si>
+  <si>
+    <t>22. Statistics</t>
+  </si>
+  <si>
+    <t>any dynamically generated graph</t>
+  </si>
+  <si>
+    <t>basic + detailed graph(s) in Single view OR Templates</t>
+  </si>
+  <si>
+    <t>basic + detailed graph(s) in Singleview AND Templates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -282,22 +283,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -339,88 +325,61 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -479,31 +438,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.72"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -531,7 +798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -545,7 +812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -557,7 +824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -571,7 +838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -583,35 +850,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -625,7 +892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -639,7 +906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -653,7 +920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -663,19 +930,19 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -685,7 +952,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -697,7 +964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -709,7 +976,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -723,7 +990,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -737,7 +1004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -749,7 +1016,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
@@ -763,7 +1030,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
@@ -775,7 +1042,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>72</v>
       </c>
@@ -789,14 +1056,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -804,12 +1071,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>